--- a/src/cineteca.xlsx
+++ b/src/cineteca.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="1800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1822" uniqueCount="1802">
   <si>
     <t>Il papà di Giovanna</t>
   </si>
@@ -68,6 +68,9 @@
     <t>Tears of the Sun</t>
   </si>
   <si>
+    <t>Jackie Brown</t>
+  </si>
+  <si>
     <t>Detroit Metal City live action</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
     <t>Il principe abusivo</t>
   </si>
   <si>
-    <t>Jackie Brown</t>
-  </si>
-  <si>
     <t>tt0119396</t>
   </si>
   <si>
@@ -2294,6 +2294,12 @@
     <t>tt0458481</t>
   </si>
   <si>
+    <t>Thor: Ragnarock</t>
+  </si>
+  <si>
+    <t>tt3501632</t>
+  </si>
+  <si>
     <t>La memoria del cuore</t>
   </si>
   <si>
@@ -5138,7 +5144,7 @@
     <t>tt0457430</t>
   </si>
   <si>
-    <t>1000 A.C.</t>
+    <t>10000 A.C.</t>
   </si>
   <si>
     <t>tt0443649</t>
@@ -5537,21 +5543,21 @@
         <v>1.0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D1">
-        <f t="shared" ref="D1:D899" si="1">COUNTIF(C:C,C1)</f>
+        <f t="shared" ref="D1:D900" si="1">COUNTIF(C:C,C1)</f>
         <v>1</v>
       </c>
       <c r="E1" s="5" t="str">
-        <f t="shared" ref="E1:E899" si="2">IF(D1&gt;1,"KO1","")</f>
+        <f t="shared" ref="E1:E900" si="2">IF(D1&gt;1,"KO1","")</f>
         <v/>
       </c>
       <c r="F1" s="5" t="str">
-        <f t="shared" ref="F1:F899" si="3">IF(D1=0,"KO2","")</f>
+        <f t="shared" ref="F1:F900" si="3">IF(D1=0,"KO2","")</f>
         <v/>
       </c>
       <c r="G1">
@@ -12054,7 +12060,7 @@
         <v>76.0</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C284" s="4" t="s">
         <v>578</v>
@@ -12974,7 +12980,7 @@
         <v>87.0</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C324" s="4" t="s">
         <v>657</v>
@@ -13296,7 +13302,7 @@
         <v>91.0</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C338" s="4" t="s">
         <v>684</v>
@@ -13595,7 +13601,7 @@
         <v>95.0</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C351" s="3" t="s">
         <v>709</v>
@@ -14190,7 +14196,7 @@
     </row>
     <row r="377" ht="12.75" customHeight="1">
       <c r="A377" s="3">
-        <v>105.0</v>
+        <v>104.0</v>
       </c>
       <c r="B377" s="4" t="s">
         <v>760</v>
@@ -14239,10 +14245,10 @@
         <v>105.0</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>23</v>
+        <v>764</v>
       </c>
       <c r="C379" s="3" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="D379">
         <f t="shared" si="1"/>
@@ -14262,7 +14268,7 @@
         <v>105.0</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>765</v>
+        <v>24</v>
       </c>
       <c r="C380" s="3" t="s">
         <v>766</v>
@@ -14282,7 +14288,7 @@
     </row>
     <row r="381" ht="12.75" customHeight="1">
       <c r="A381" s="3">
-        <v>106.0</v>
+        <v>105.0</v>
       </c>
       <c r="B381" s="4" t="s">
         <v>767</v>
@@ -14351,7 +14357,7 @@
     </row>
     <row r="384" ht="12.75" customHeight="1">
       <c r="A384" s="3">
-        <v>107.0</v>
+        <v>106.0</v>
       </c>
       <c r="B384" s="4" t="s">
         <v>773</v>
@@ -14420,7 +14426,7 @@
     </row>
     <row r="387" ht="12.75" customHeight="1">
       <c r="A387" s="3">
-        <v>108.0</v>
+        <v>107.0</v>
       </c>
       <c r="B387" s="4" t="s">
         <v>779</v>
@@ -14446,10 +14452,10 @@
         <v>108.0</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>24</v>
+        <v>781</v>
       </c>
       <c r="C388" s="3" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="D388">
         <f t="shared" si="1"/>
@@ -14469,7 +14475,7 @@
         <v>108.0</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>782</v>
+        <v>25</v>
       </c>
       <c r="C389" s="3" t="s">
         <v>783</v>
@@ -14489,7 +14495,7 @@
     </row>
     <row r="390" ht="12.75" customHeight="1">
       <c r="A390" s="3">
-        <v>109.0</v>
+        <v>108.0</v>
       </c>
       <c r="B390" s="4" t="s">
         <v>784</v>
@@ -14558,7 +14564,7 @@
     </row>
     <row r="393" ht="12.75" customHeight="1">
       <c r="A393" s="3">
-        <v>110.0</v>
+        <v>109.0</v>
       </c>
       <c r="B393" s="4" t="s">
         <v>790</v>
@@ -14627,12 +14633,12 @@
     </row>
     <row r="396" ht="12.75" customHeight="1">
       <c r="A396" s="3">
-        <v>111.0</v>
+        <v>110.0</v>
       </c>
       <c r="B396" s="4" t="s">
         <v>796</v>
       </c>
-      <c r="C396" s="4" t="s">
+      <c r="C396" s="3" t="s">
         <v>797</v>
       </c>
       <c r="D396">
@@ -14696,7 +14702,7 @@
     </row>
     <row r="399" ht="12.75" customHeight="1">
       <c r="A399" s="3">
-        <v>112.0</v>
+        <v>111.0</v>
       </c>
       <c r="B399" s="4" t="s">
         <v>802</v>
@@ -14742,7 +14748,7 @@
     </row>
     <row r="401" ht="12.75" customHeight="1">
       <c r="A401" s="3">
-        <v>113.0</v>
+        <v>112.0</v>
       </c>
       <c r="B401" s="4" t="s">
         <v>806</v>
@@ -14790,7 +14796,7 @@
       <c r="A403" s="3">
         <v>113.0</v>
       </c>
-      <c r="B403" s="6" t="s">
+      <c r="B403" s="4" t="s">
         <v>810</v>
       </c>
       <c r="C403" s="4" t="s">
@@ -14813,7 +14819,7 @@
       <c r="A404" s="3">
         <v>113.0</v>
       </c>
-      <c r="B404" s="4" t="s">
+      <c r="B404" s="6" t="s">
         <v>812</v>
       </c>
       <c r="C404" s="4" t="s">
@@ -14834,7 +14840,7 @@
     </row>
     <row r="405" ht="12.75" customHeight="1">
       <c r="A405" s="3">
-        <v>114.0</v>
+        <v>113.0</v>
       </c>
       <c r="B405" s="4" t="s">
         <v>814</v>
@@ -14903,7 +14909,7 @@
     </row>
     <row r="408" ht="12.75" customHeight="1">
       <c r="A408" s="3">
-        <v>115.0</v>
+        <v>114.0</v>
       </c>
       <c r="B408" s="4" t="s">
         <v>820</v>
@@ -14972,7 +14978,7 @@
     </row>
     <row r="411" ht="12.75" customHeight="1">
       <c r="A411" s="3">
-        <v>116.0</v>
+        <v>115.0</v>
       </c>
       <c r="B411" s="4" t="s">
         <v>826</v>
@@ -15041,7 +15047,7 @@
     </row>
     <row r="414" ht="12.75" customHeight="1">
       <c r="A414" s="3">
-        <v>117.0</v>
+        <v>116.0</v>
       </c>
       <c r="B414" s="4" t="s">
         <v>832</v>
@@ -15110,7 +15116,7 @@
     </row>
     <row r="417" ht="12.75" customHeight="1">
       <c r="A417" s="3">
-        <v>118.0</v>
+        <v>117.0</v>
       </c>
       <c r="B417" s="4" t="s">
         <v>838</v>
@@ -15179,7 +15185,7 @@
     </row>
     <row r="420" ht="12.75" customHeight="1">
       <c r="A420" s="3">
-        <v>119.0</v>
+        <v>118.0</v>
       </c>
       <c r="B420" s="4" t="s">
         <v>844</v>
@@ -15248,7 +15254,7 @@
     </row>
     <row r="423" ht="12.75" customHeight="1">
       <c r="A423" s="3">
-        <v>120.0</v>
+        <v>119.0</v>
       </c>
       <c r="B423" s="4" t="s">
         <v>850</v>
@@ -15363,7 +15369,7 @@
     </row>
     <row r="428" ht="12.75" customHeight="1">
       <c r="A428" s="3">
-        <v>121.0</v>
+        <v>120.0</v>
       </c>
       <c r="B428" s="4" t="s">
         <v>860</v>
@@ -15409,7 +15415,7 @@
     </row>
     <row r="430" ht="12.75" customHeight="1">
       <c r="A430" s="3">
-        <v>122.0</v>
+        <v>121.0</v>
       </c>
       <c r="B430" s="4" t="s">
         <v>864</v>
@@ -15478,7 +15484,7 @@
     </row>
     <row r="433" ht="12.75" customHeight="1">
       <c r="A433" s="3">
-        <v>123.0</v>
+        <v>122.0</v>
       </c>
       <c r="B433" s="4" t="s">
         <v>870</v>
@@ -15570,7 +15576,7 @@
     </row>
     <row r="437" ht="12.75" customHeight="1">
       <c r="A437" s="3">
-        <v>124.0</v>
+        <v>123.0</v>
       </c>
       <c r="B437" s="4" t="s">
         <v>878</v>
@@ -15662,7 +15668,7 @@
     </row>
     <row r="441" ht="12.75" customHeight="1">
       <c r="A441" s="3">
-        <v>125.0</v>
+        <v>124.0</v>
       </c>
       <c r="B441" s="4" t="s">
         <v>886</v>
@@ -15754,7 +15760,7 @@
     </row>
     <row r="445" ht="12.75" customHeight="1">
       <c r="A445" s="3">
-        <v>126.0</v>
+        <v>125.0</v>
       </c>
       <c r="B445" s="4" t="s">
         <v>894</v>
@@ -15846,7 +15852,7 @@
     </row>
     <row r="449" ht="12.75" customHeight="1">
       <c r="A449" s="3">
-        <v>127.0</v>
+        <v>126.0</v>
       </c>
       <c r="B449" s="4" t="s">
         <v>902</v>
@@ -15938,7 +15944,7 @@
     </row>
     <row r="453" ht="12.75" customHeight="1">
       <c r="A453" s="3">
-        <v>128.0</v>
+        <v>127.0</v>
       </c>
       <c r="B453" s="4" t="s">
         <v>910</v>
@@ -15984,7 +15990,7 @@
     </row>
     <row r="455" ht="12.75" customHeight="1">
       <c r="A455" s="3">
-        <v>129.0</v>
+        <v>128.0</v>
       </c>
       <c r="B455" s="4" t="s">
         <v>914</v>
@@ -16075,8 +16081,8 @@
       </c>
     </row>
     <row r="459" ht="12.75" customHeight="1">
-      <c r="A459" s="4">
-        <v>130.0</v>
+      <c r="A459" s="3">
+        <v>129.0</v>
       </c>
       <c r="B459" s="4" t="s">
         <v>922</v>
@@ -16168,7 +16174,7 @@
     </row>
     <row r="463" ht="12.75" customHeight="1">
       <c r="A463" s="4">
-        <v>131.0</v>
+        <v>130.0</v>
       </c>
       <c r="B463" s="4" t="s">
         <v>930</v>
@@ -16237,7 +16243,7 @@
     </row>
     <row r="466" ht="12.75" customHeight="1">
       <c r="A466" s="4">
-        <v>132.0</v>
+        <v>131.0</v>
       </c>
       <c r="B466" s="4" t="s">
         <v>936</v>
@@ -16306,7 +16312,7 @@
     </row>
     <row r="469" ht="12.75" customHeight="1">
       <c r="A469" s="4">
-        <v>133.0</v>
+        <v>132.0</v>
       </c>
       <c r="B469" s="4" t="s">
         <v>942</v>
@@ -16398,7 +16404,7 @@
     </row>
     <row r="473" ht="12.75" customHeight="1">
       <c r="A473" s="4">
-        <v>134.0</v>
+        <v>133.0</v>
       </c>
       <c r="B473" s="4" t="s">
         <v>950</v>
@@ -16490,9 +16496,9 @@
     </row>
     <row r="477" ht="12.75" customHeight="1">
       <c r="A477" s="4">
-        <v>135.0</v>
-      </c>
-      <c r="B477" s="7" t="s">
+        <v>134.0</v>
+      </c>
+      <c r="B477" s="4" t="s">
         <v>958</v>
       </c>
       <c r="C477" s="4" t="s">
@@ -16515,7 +16521,7 @@
       <c r="A478" s="4">
         <v>135.0</v>
       </c>
-      <c r="B478" s="4" t="s">
+      <c r="B478" s="7" t="s">
         <v>960</v>
       </c>
       <c r="C478" s="4" t="s">
@@ -16605,7 +16611,7 @@
     </row>
     <row r="482" ht="12.75" customHeight="1">
       <c r="A482" s="4">
-        <v>136.0</v>
+        <v>135.0</v>
       </c>
       <c r="B482" s="4" t="s">
         <v>968</v>
@@ -16697,7 +16703,7 @@
     </row>
     <row r="486" ht="12.75" customHeight="1">
       <c r="A486" s="4">
-        <v>137.0</v>
+        <v>136.0</v>
       </c>
       <c r="B486" s="4" t="s">
         <v>976</v>
@@ -16766,7 +16772,7 @@
     </row>
     <row r="489" ht="12.75" customHeight="1">
       <c r="A489" s="4">
-        <v>138.0</v>
+        <v>137.0</v>
       </c>
       <c r="B489" s="4" t="s">
         <v>982</v>
@@ -16858,7 +16864,7 @@
     </row>
     <row r="493" ht="12.75" customHeight="1">
       <c r="A493" s="4">
-        <v>139.0</v>
+        <v>138.0</v>
       </c>
       <c r="B493" s="4" t="s">
         <v>990</v>
@@ -16996,7 +17002,7 @@
     </row>
     <row r="499" ht="12.75" customHeight="1">
       <c r="A499" s="4">
-        <v>140.0</v>
+        <v>139.0</v>
       </c>
       <c r="B499" s="4" t="s">
         <v>1002</v>
@@ -17065,7 +17071,7 @@
     </row>
     <row r="502" ht="12.75" customHeight="1">
       <c r="A502" s="4">
-        <v>141.0</v>
+        <v>140.0</v>
       </c>
       <c r="B502" s="4" t="s">
         <v>1008</v>
@@ -17180,7 +17186,7 @@
     </row>
     <row r="507" ht="12.75" customHeight="1">
       <c r="A507" s="4">
-        <v>142.0</v>
+        <v>141.0</v>
       </c>
       <c r="B507" s="4" t="s">
         <v>1018</v>
@@ -17295,7 +17301,7 @@
     </row>
     <row r="512" ht="12.75" customHeight="1">
       <c r="A512" s="4">
-        <v>143.0</v>
+        <v>142.0</v>
       </c>
       <c r="B512" s="4" t="s">
         <v>1028</v>
@@ -17410,7 +17416,7 @@
     </row>
     <row r="517" ht="12.75" customHeight="1">
       <c r="A517" s="4">
-        <v>144.0</v>
+        <v>143.0</v>
       </c>
       <c r="B517" s="4" t="s">
         <v>1038</v>
@@ -17525,7 +17531,7 @@
     </row>
     <row r="522" ht="12.75" customHeight="1">
       <c r="A522" s="4">
-        <v>145.0</v>
+        <v>144.0</v>
       </c>
       <c r="B522" s="4" t="s">
         <v>1048</v>
@@ -17617,7 +17623,7 @@
     </row>
     <row r="526" ht="12.75" customHeight="1">
       <c r="A526" s="4">
-        <v>146.0</v>
+        <v>145.0</v>
       </c>
       <c r="B526" s="4" t="s">
         <v>1056</v>
@@ -17732,7 +17738,7 @@
     </row>
     <row r="531" ht="12.75" customHeight="1">
       <c r="A531" s="4">
-        <v>147.0</v>
+        <v>146.0</v>
       </c>
       <c r="B531" s="4" t="s">
         <v>1066</v>
@@ -17824,7 +17830,7 @@
     </row>
     <row r="535" ht="12.75" customHeight="1">
       <c r="A535" s="4">
-        <v>148.0</v>
+        <v>147.0</v>
       </c>
       <c r="B535" s="4" t="s">
         <v>1074</v>
@@ -17893,7 +17899,7 @@
     </row>
     <row r="538" ht="12.75" customHeight="1">
       <c r="A538" s="4">
-        <v>149.0</v>
+        <v>148.0</v>
       </c>
       <c r="B538" s="4" t="s">
         <v>1080</v>
@@ -17962,7 +17968,7 @@
     </row>
     <row r="541" ht="12.75" customHeight="1">
       <c r="A541" s="4">
-        <v>150.0</v>
+        <v>149.0</v>
       </c>
       <c r="B541" s="4" t="s">
         <v>1086</v>
@@ -18077,7 +18083,7 @@
     </row>
     <row r="546" ht="12.75" customHeight="1">
       <c r="A546" s="4">
-        <v>151.0</v>
+        <v>150.0</v>
       </c>
       <c r="B546" s="4" t="s">
         <v>1096</v>
@@ -18146,7 +18152,7 @@
     </row>
     <row r="549" ht="12.75" customHeight="1">
       <c r="A549" s="4">
-        <v>152.0</v>
+        <v>151.0</v>
       </c>
       <c r="B549" s="4" t="s">
         <v>1102</v>
@@ -18237,10 +18243,10 @@
       </c>
     </row>
     <row r="553" ht="12.75" customHeight="1">
-      <c r="A553" s="3">
-        <v>153.0</v>
-      </c>
-      <c r="B553" s="3" t="s">
+      <c r="A553" s="4">
+        <v>152.0</v>
+      </c>
+      <c r="B553" s="4" t="s">
         <v>1110</v>
       </c>
       <c r="C553" s="4" t="s">
@@ -18260,10 +18266,10 @@
       </c>
     </row>
     <row r="554" ht="12.75" customHeight="1">
-      <c r="A554" s="4">
+      <c r="A554" s="3">
         <v>153.0</v>
       </c>
-      <c r="B554" s="4" t="s">
+      <c r="B554" s="3" t="s">
         <v>1112</v>
       </c>
       <c r="C554" s="4" t="s">
@@ -18307,7 +18313,7 @@
     </row>
     <row r="556" ht="12.75" customHeight="1">
       <c r="A556" s="4">
-        <v>154.0</v>
+        <v>153.0</v>
       </c>
       <c r="B556" s="4" t="s">
         <v>1116</v>
@@ -18399,7 +18405,7 @@
     </row>
     <row r="560" ht="12.75" customHeight="1">
       <c r="A560" s="4">
-        <v>155.0</v>
+        <v>154.0</v>
       </c>
       <c r="B560" s="4" t="s">
         <v>1124</v>
@@ -18445,7 +18451,7 @@
     </row>
     <row r="562" ht="12.75" customHeight="1">
       <c r="A562" s="4">
-        <v>156.0</v>
+        <v>155.0</v>
       </c>
       <c r="B562" s="4" t="s">
         <v>1128</v>
@@ -18514,7 +18520,7 @@
     </row>
     <row r="565" ht="12.75" customHeight="1">
       <c r="A565" s="4">
-        <v>157.0</v>
+        <v>156.0</v>
       </c>
       <c r="B565" s="4" t="s">
         <v>1134</v>
@@ -18560,7 +18566,7 @@
     </row>
     <row r="567" ht="12.75" customHeight="1">
       <c r="A567" s="4">
-        <v>158.0</v>
+        <v>157.0</v>
       </c>
       <c r="B567" s="4" t="s">
         <v>1138</v>
@@ -18629,7 +18635,7 @@
     </row>
     <row r="570" ht="12.75" customHeight="1">
       <c r="A570" s="4">
-        <v>159.0</v>
+        <v>158.0</v>
       </c>
       <c r="B570" s="4" t="s">
         <v>1144</v>
@@ -18721,7 +18727,7 @@
     </row>
     <row r="574" ht="12.75" customHeight="1">
       <c r="A574" s="4">
-        <v>160.0</v>
+        <v>159.0</v>
       </c>
       <c r="B574" s="4" t="s">
         <v>1152</v>
@@ -18789,8 +18795,8 @@
       </c>
     </row>
     <row r="577" ht="12.75" customHeight="1">
-      <c r="A577" s="2">
-        <v>161.0</v>
+      <c r="A577" s="4">
+        <v>160.0</v>
       </c>
       <c r="B577" s="4" t="s">
         <v>1158</v>
@@ -18882,7 +18888,7 @@
     </row>
     <row r="581" ht="12.75" customHeight="1">
       <c r="A581" s="2">
-        <v>162.0</v>
+        <v>161.0</v>
       </c>
       <c r="B581" s="4" t="s">
         <v>1166</v>
@@ -18974,7 +18980,7 @@
     </row>
     <row r="585" ht="12.75" customHeight="1">
       <c r="A585" s="2">
-        <v>163.0</v>
+        <v>162.0</v>
       </c>
       <c r="B585" s="4" t="s">
         <v>1174</v>
@@ -19043,7 +19049,7 @@
     </row>
     <row r="588" ht="12.75" customHeight="1">
       <c r="A588" s="2">
-        <v>164.0</v>
+        <v>163.0</v>
       </c>
       <c r="B588" s="4" t="s">
         <v>1180</v>
@@ -19135,7 +19141,7 @@
     </row>
     <row r="592" ht="12.75" customHeight="1">
       <c r="A592" s="2">
-        <v>165.0</v>
+        <v>164.0</v>
       </c>
       <c r="B592" s="4" t="s">
         <v>1188</v>
@@ -19227,7 +19233,7 @@
     </row>
     <row r="596" ht="12.75" customHeight="1">
       <c r="A596" s="2">
-        <v>166.0</v>
+        <v>165.0</v>
       </c>
       <c r="B596" s="4" t="s">
         <v>1196</v>
@@ -19250,7 +19256,7 @@
     </row>
     <row r="597" ht="12.75" customHeight="1">
       <c r="A597" s="2">
-        <v>167.0</v>
+        <v>166.0</v>
       </c>
       <c r="B597" s="4" t="s">
         <v>1198</v>
@@ -19365,7 +19371,7 @@
     </row>
     <row r="602" ht="12.75" customHeight="1">
       <c r="A602" s="2">
-        <v>168.0</v>
+        <v>167.0</v>
       </c>
       <c r="B602" s="4" t="s">
         <v>1208</v>
@@ -19434,7 +19440,7 @@
     </row>
     <row r="605" ht="12.75" customHeight="1">
       <c r="A605" s="2">
-        <v>169.0</v>
+        <v>168.0</v>
       </c>
       <c r="B605" s="4" t="s">
         <v>1214</v>
@@ -19502,10 +19508,10 @@
       </c>
     </row>
     <row r="608" ht="12.75" customHeight="1">
-      <c r="A608" s="8">
-        <v>170.0</v>
-      </c>
-      <c r="B608" s="9" t="s">
+      <c r="A608" s="2">
+        <v>169.0</v>
+      </c>
+      <c r="B608" s="4" t="s">
         <v>1220</v>
       </c>
       <c r="C608" s="4" t="s">
@@ -19594,10 +19600,10 @@
       </c>
     </row>
     <row r="612" ht="12.75" customHeight="1">
-      <c r="A612" s="2">
-        <v>171.0</v>
-      </c>
-      <c r="B612" s="4" t="s">
+      <c r="A612" s="8">
+        <v>170.0</v>
+      </c>
+      <c r="B612" s="9" t="s">
         <v>1228</v>
       </c>
       <c r="C612" s="4" t="s">
@@ -19664,7 +19670,7 @@
     </row>
     <row r="615" ht="12.75" customHeight="1">
       <c r="A615" s="2">
-        <v>172.0</v>
+        <v>171.0</v>
       </c>
       <c r="B615" s="4" t="s">
         <v>1234</v>
@@ -19802,7 +19808,7 @@
     </row>
     <row r="621" ht="12.75" customHeight="1">
       <c r="A621" s="2">
-        <v>173.0</v>
+        <v>172.0</v>
       </c>
       <c r="B621" s="4" t="s">
         <v>1246</v>
@@ -19940,7 +19946,7 @@
     </row>
     <row r="627" ht="12.75" customHeight="1">
       <c r="A627" s="2">
-        <v>174.0</v>
+        <v>173.0</v>
       </c>
       <c r="B627" s="4" t="s">
         <v>1258</v>
@@ -19992,7 +19998,7 @@
         <v>1262</v>
       </c>
       <c r="C629" s="4" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D629">
         <f t="shared" si="1"/>
@@ -20009,10 +20015,10 @@
     </row>
     <row r="630" ht="12.75" customHeight="1">
       <c r="A630" s="2">
-        <v>175.0</v>
+        <v>174.0</v>
       </c>
       <c r="B630" s="4" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="C630" s="4" t="s">
         <v>1264</v>
@@ -20124,7 +20130,7 @@
     </row>
     <row r="635" ht="12.75" customHeight="1">
       <c r="A635" s="2">
-        <v>176.0</v>
+        <v>175.0</v>
       </c>
       <c r="B635" s="4" t="s">
         <v>1273</v>
@@ -20193,13 +20199,13 @@
     </row>
     <row r="638" ht="12.75" customHeight="1">
       <c r="A638" s="2">
-        <v>177.0</v>
-      </c>
-      <c r="B638" s="4">
-        <v>21.0</v>
+        <v>176.0</v>
+      </c>
+      <c r="B638" s="4" t="s">
+        <v>1279</v>
       </c>
       <c r="C638" s="4" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="D638">
         <f t="shared" si="1"/>
@@ -20218,8 +20224,8 @@
       <c r="A639" s="2">
         <v>177.0</v>
       </c>
-      <c r="B639" s="4" t="s">
-        <v>1280</v>
+      <c r="B639" s="4">
+        <v>21.0</v>
       </c>
       <c r="C639" s="4" t="s">
         <v>1281</v>
@@ -20285,7 +20291,7 @@
     </row>
     <row r="642" ht="12.75" customHeight="1">
       <c r="A642" s="2">
-        <v>178.0</v>
+        <v>177.0</v>
       </c>
       <c r="B642" s="4" t="s">
         <v>1286</v>
@@ -20354,7 +20360,7 @@
     </row>
     <row r="645" ht="12.75" customHeight="1">
       <c r="A645" s="2">
-        <v>179.0</v>
+        <v>178.0</v>
       </c>
       <c r="B645" s="4" t="s">
         <v>1292</v>
@@ -20446,7 +20452,7 @@
     </row>
     <row r="649" ht="12.75" customHeight="1">
       <c r="A649" s="2">
-        <v>180.0</v>
+        <v>179.0</v>
       </c>
       <c r="B649" s="4" t="s">
         <v>1300</v>
@@ -20538,7 +20544,7 @@
     </row>
     <row r="653" ht="12.75" customHeight="1">
       <c r="A653" s="2">
-        <v>181.0</v>
+        <v>180.0</v>
       </c>
       <c r="B653" s="4" t="s">
         <v>1308</v>
@@ -20584,7 +20590,7 @@
     </row>
     <row r="655" ht="12.75" customHeight="1">
       <c r="A655" s="2">
-        <v>182.0</v>
+        <v>181.0</v>
       </c>
       <c r="B655" s="4" t="s">
         <v>1312</v>
@@ -20653,7 +20659,7 @@
     </row>
     <row r="658" ht="12.75" customHeight="1">
       <c r="A658" s="2">
-        <v>183.0</v>
+        <v>182.0</v>
       </c>
       <c r="B658" s="4" t="s">
         <v>1318</v>
@@ -20768,7 +20774,7 @@
     </row>
     <row r="663" ht="12.75" customHeight="1">
       <c r="A663" s="2">
-        <v>184.0</v>
+        <v>183.0</v>
       </c>
       <c r="B663" s="4" t="s">
         <v>1328</v>
@@ -20837,7 +20843,7 @@
     </row>
     <row r="666" ht="12.75" customHeight="1">
       <c r="A666" s="2">
-        <v>185.0</v>
+        <v>184.0</v>
       </c>
       <c r="B666" s="4" t="s">
         <v>1334</v>
@@ -20952,7 +20958,7 @@
     </row>
     <row r="671" ht="12.75" customHeight="1">
       <c r="A671" s="2">
-        <v>186.0</v>
+        <v>185.0</v>
       </c>
       <c r="B671" s="4" t="s">
         <v>1344</v>
@@ -21044,12 +21050,12 @@
     </row>
     <row r="675" ht="12.75" customHeight="1">
       <c r="A675" s="2">
-        <v>187.0</v>
+        <v>186.0</v>
       </c>
       <c r="B675" s="4" t="s">
         <v>1352</v>
       </c>
-      <c r="C675" s="3" t="s">
+      <c r="C675" s="4" t="s">
         <v>1353</v>
       </c>
       <c r="D675">
@@ -21182,7 +21188,7 @@
     </row>
     <row r="681" ht="12.75" customHeight="1">
       <c r="A681" s="2">
-        <v>188.0</v>
+        <v>187.0</v>
       </c>
       <c r="B681" s="4" t="s">
         <v>1364</v>
@@ -21251,7 +21257,7 @@
     </row>
     <row r="684" ht="12.75" customHeight="1">
       <c r="A684" s="2">
-        <v>189.0</v>
+        <v>188.0</v>
       </c>
       <c r="B684" s="4" t="s">
         <v>1370</v>
@@ -21389,7 +21395,7 @@
     </row>
     <row r="690" ht="12.75" customHeight="1">
       <c r="A690" s="2">
-        <v>190.0</v>
+        <v>189.0</v>
       </c>
       <c r="B690" s="4" t="s">
         <v>1382</v>
@@ -21481,7 +21487,7 @@
     </row>
     <row r="694" ht="12.75" customHeight="1">
       <c r="A694" s="2">
-        <v>191.0</v>
+        <v>190.0</v>
       </c>
       <c r="B694" s="4" t="s">
         <v>1390</v>
@@ -21573,7 +21579,7 @@
     </row>
     <row r="698" ht="12.75" customHeight="1">
       <c r="A698" s="2">
-        <v>192.0</v>
+        <v>191.0</v>
       </c>
       <c r="B698" s="4" t="s">
         <v>1398</v>
@@ -21713,7 +21719,7 @@
       <c r="A704" s="2">
         <v>192.0</v>
       </c>
-      <c r="B704" s="10" t="s">
+      <c r="B704" s="4" t="s">
         <v>1410</v>
       </c>
       <c r="C704" s="3" t="s">
@@ -21736,7 +21742,7 @@
       <c r="A705" s="2">
         <v>192.0</v>
       </c>
-      <c r="B705" s="4" t="s">
+      <c r="B705" s="10" t="s">
         <v>1412</v>
       </c>
       <c r="C705" s="3" t="s">
@@ -21757,7 +21763,7 @@
     </row>
     <row r="706" ht="12.75" customHeight="1">
       <c r="A706" s="2">
-        <v>193.0</v>
+        <v>192.0</v>
       </c>
       <c r="B706" s="4" t="s">
         <v>1414</v>
@@ -21849,7 +21855,7 @@
     </row>
     <row r="710" ht="12.75" customHeight="1">
       <c r="A710" s="2">
-        <v>194.0</v>
+        <v>193.0</v>
       </c>
       <c r="B710" s="4" t="s">
         <v>1422</v>
@@ -21964,7 +21970,7 @@
     </row>
     <row r="715" ht="12.75" customHeight="1">
       <c r="A715" s="2">
-        <v>195.0</v>
+        <v>194.0</v>
       </c>
       <c r="B715" s="4" t="s">
         <v>1432</v>
@@ -22033,7 +22039,7 @@
     </row>
     <row r="718" ht="12.75" customHeight="1">
       <c r="A718" s="2">
-        <v>196.0</v>
+        <v>195.0</v>
       </c>
       <c r="B718" s="4" t="s">
         <v>1438</v>
@@ -22102,7 +22108,7 @@
     </row>
     <row r="721" ht="12.75" customHeight="1">
       <c r="A721" s="2">
-        <v>197.0</v>
+        <v>196.0</v>
       </c>
       <c r="B721" s="4" t="s">
         <v>1444</v>
@@ -22171,7 +22177,7 @@
     </row>
     <row r="724" ht="12.75" customHeight="1">
       <c r="A724" s="2">
-        <v>198.0</v>
+        <v>197.0</v>
       </c>
       <c r="B724" s="4" t="s">
         <v>1450</v>
@@ -22240,7 +22246,7 @@
     </row>
     <row r="727" ht="12.75" customHeight="1">
       <c r="A727" s="2">
-        <v>199.0</v>
+        <v>198.0</v>
       </c>
       <c r="B727" s="4" t="s">
         <v>1456</v>
@@ -22378,7 +22384,7 @@
     </row>
     <row r="733" ht="12.75" customHeight="1">
       <c r="A733" s="2">
-        <v>200.0</v>
+        <v>199.0</v>
       </c>
       <c r="B733" s="4" t="s">
         <v>1468</v>
@@ -22469,10 +22475,10 @@
       </c>
     </row>
     <row r="737" ht="12.75" customHeight="1">
-      <c r="A737" s="3">
-        <v>201.0</v>
-      </c>
-      <c r="B737" s="3" t="s">
+      <c r="A737" s="2">
+        <v>200.0</v>
+      </c>
+      <c r="B737" s="4" t="s">
         <v>1476</v>
       </c>
       <c r="C737" s="3" t="s">
@@ -22516,7 +22522,7 @@
     </row>
     <row r="739" ht="12.75" customHeight="1">
       <c r="A739" s="3">
-        <v>202.0</v>
+        <v>201.0</v>
       </c>
       <c r="B739" s="3" t="s">
         <v>1480</v>
@@ -22608,7 +22614,7 @@
     </row>
     <row r="743" ht="12.75" customHeight="1">
       <c r="A743" s="3">
-        <v>203.0</v>
+        <v>202.0</v>
       </c>
       <c r="B743" s="3" t="s">
         <v>1488</v>
@@ -22680,10 +22686,10 @@
         <v>203.0</v>
       </c>
       <c r="B746" s="3" t="s">
-        <v>1490</v>
+        <v>1494</v>
       </c>
       <c r="C746" s="3" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="D746">
         <f t="shared" si="1"/>
@@ -22700,10 +22706,10 @@
     </row>
     <row r="747" ht="12.75" customHeight="1">
       <c r="A747" s="3">
-        <v>204.0</v>
+        <v>203.0</v>
       </c>
       <c r="B747" s="3" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="C747" s="3" t="s">
         <v>1496</v>
@@ -22725,7 +22731,7 @@
       <c r="A748" s="3">
         <v>204.0</v>
       </c>
-      <c r="B748" s="4" t="s">
+      <c r="B748" s="3" t="s">
         <v>1497</v>
       </c>
       <c r="C748" s="3" t="s">
@@ -22748,7 +22754,7 @@
       <c r="A749" s="3">
         <v>204.0</v>
       </c>
-      <c r="B749" s="3" t="s">
+      <c r="B749" s="4" t="s">
         <v>1499</v>
       </c>
       <c r="C749" s="3" t="s">
@@ -22769,7 +22775,7 @@
     </row>
     <row r="750" ht="12.75" customHeight="1">
       <c r="A750" s="3">
-        <v>205.0</v>
+        <v>204.0</v>
       </c>
       <c r="B750" s="3" t="s">
         <v>1501</v>
@@ -22815,7 +22821,7 @@
     </row>
     <row r="752" ht="12.75" customHeight="1">
       <c r="A752" s="3">
-        <v>206.0</v>
+        <v>205.0</v>
       </c>
       <c r="B752" s="3" t="s">
         <v>1505</v>
@@ -22884,7 +22890,7 @@
     </row>
     <row r="755" ht="12.75" customHeight="1">
       <c r="A755" s="3">
-        <v>207.0</v>
+        <v>206.0</v>
       </c>
       <c r="B755" s="3" t="s">
         <v>1511</v>
@@ -22953,7 +22959,7 @@
     </row>
     <row r="758" ht="12.75" customHeight="1">
       <c r="A758" s="3">
-        <v>208.0</v>
+        <v>207.0</v>
       </c>
       <c r="B758" s="3" t="s">
         <v>1517</v>
@@ -23022,7 +23028,7 @@
     </row>
     <row r="761" ht="12.75" customHeight="1">
       <c r="A761" s="3">
-        <v>209.0</v>
+        <v>208.0</v>
       </c>
       <c r="B761" s="3" t="s">
         <v>1523</v>
@@ -23091,7 +23097,7 @@
     </row>
     <row r="764" ht="12.75" customHeight="1">
       <c r="A764" s="3">
-        <v>210.0</v>
+        <v>209.0</v>
       </c>
       <c r="B764" s="3" t="s">
         <v>1529</v>
@@ -23160,7 +23166,7 @@
     </row>
     <row r="767" ht="12.75" customHeight="1">
       <c r="A767" s="3">
-        <v>211.0</v>
+        <v>210.0</v>
       </c>
       <c r="B767" s="3" t="s">
         <v>1535</v>
@@ -23229,7 +23235,7 @@
     </row>
     <row r="770" ht="12.75" customHeight="1">
       <c r="A770" s="3">
-        <v>212.0</v>
+        <v>211.0</v>
       </c>
       <c r="B770" s="3" t="s">
         <v>1541</v>
@@ -23298,7 +23304,7 @@
     </row>
     <row r="773" ht="12.75" customHeight="1">
       <c r="A773" s="3">
-        <v>213.0</v>
+        <v>212.0</v>
       </c>
       <c r="B773" s="3" t="s">
         <v>1547</v>
@@ -23367,7 +23373,7 @@
     </row>
     <row r="776" ht="12.75" customHeight="1">
       <c r="A776" s="3">
-        <v>214.0</v>
+        <v>213.0</v>
       </c>
       <c r="B776" s="3" t="s">
         <v>1553</v>
@@ -23436,7 +23442,7 @@
     </row>
     <row r="779" ht="12.75" customHeight="1">
       <c r="A779" s="3">
-        <v>215.0</v>
+        <v>214.0</v>
       </c>
       <c r="B779" s="3" t="s">
         <v>1559</v>
@@ -23505,7 +23511,7 @@
     </row>
     <row r="782" ht="12.75" customHeight="1">
       <c r="A782" s="3">
-        <v>216.0</v>
+        <v>215.0</v>
       </c>
       <c r="B782" s="3" t="s">
         <v>1565</v>
@@ -23574,7 +23580,7 @@
     </row>
     <row r="785" ht="12.75" customHeight="1">
       <c r="A785" s="3">
-        <v>217.0</v>
+        <v>216.0</v>
       </c>
       <c r="B785" s="3" t="s">
         <v>1571</v>
@@ -23643,7 +23649,7 @@
     </row>
     <row r="788" ht="12.75" customHeight="1">
       <c r="A788" s="3">
-        <v>218.0</v>
+        <v>217.0</v>
       </c>
       <c r="B788" s="3" t="s">
         <v>1577</v>
@@ -23712,7 +23718,7 @@
     </row>
     <row r="791" ht="12.75" customHeight="1">
       <c r="A791" s="3">
-        <v>219.0</v>
+        <v>218.0</v>
       </c>
       <c r="B791" s="3" t="s">
         <v>1583</v>
@@ -23781,7 +23787,7 @@
     </row>
     <row r="794" ht="12.75" customHeight="1">
       <c r="A794" s="3">
-        <v>220.0</v>
+        <v>219.0</v>
       </c>
       <c r="B794" s="3" t="s">
         <v>1589</v>
@@ -23873,7 +23879,7 @@
     </row>
     <row r="798" ht="12.75" customHeight="1">
       <c r="A798" s="3">
-        <v>221.0</v>
+        <v>220.0</v>
       </c>
       <c r="B798" s="3" t="s">
         <v>1597</v>
@@ -23965,7 +23971,7 @@
     </row>
     <row r="802" ht="12.75" customHeight="1">
       <c r="A802" s="3">
-        <v>222.0</v>
+        <v>221.0</v>
       </c>
       <c r="B802" s="3" t="s">
         <v>1605</v>
@@ -24057,7 +24063,7 @@
     </row>
     <row r="806" ht="12.75" customHeight="1">
       <c r="A806" s="3">
-        <v>223.0</v>
+        <v>222.0</v>
       </c>
       <c r="B806" s="3" t="s">
         <v>1613</v>
@@ -24172,7 +24178,7 @@
     </row>
     <row r="811" ht="12.75" customHeight="1">
       <c r="A811" s="3">
-        <v>224.0</v>
+        <v>223.0</v>
       </c>
       <c r="B811" s="3" t="s">
         <v>1623</v>
@@ -24264,7 +24270,7 @@
     </row>
     <row r="815" ht="12.75" customHeight="1">
       <c r="A815" s="3">
-        <v>225.0</v>
+        <v>224.0</v>
       </c>
       <c r="B815" s="3" t="s">
         <v>1631</v>
@@ -24333,7 +24339,7 @@
     </row>
     <row r="818" ht="12.75" customHeight="1">
       <c r="A818" s="3">
-        <v>226.0</v>
+        <v>225.0</v>
       </c>
       <c r="B818" s="3" t="s">
         <v>1637</v>
@@ -24402,7 +24408,7 @@
     </row>
     <row r="821" ht="12.75" customHeight="1">
       <c r="A821" s="3">
-        <v>227.0</v>
+        <v>226.0</v>
       </c>
       <c r="B821" s="3" t="s">
         <v>1643</v>
@@ -24494,7 +24500,7 @@
     </row>
     <row r="825" ht="12.75" customHeight="1">
       <c r="A825" s="3">
-        <v>228.0</v>
+        <v>227.0</v>
       </c>
       <c r="B825" s="3" t="s">
         <v>1651</v>
@@ -24586,7 +24592,7 @@
     </row>
     <row r="829" ht="12.75" customHeight="1">
       <c r="A829" s="3">
-        <v>229.0</v>
+        <v>228.0</v>
       </c>
       <c r="B829" s="3" t="s">
         <v>1659</v>
@@ -24655,7 +24661,7 @@
     </row>
     <row r="832" ht="12.75" customHeight="1">
       <c r="A832" s="3">
-        <v>230.0</v>
+        <v>229.0</v>
       </c>
       <c r="B832" s="3" t="s">
         <v>1665</v>
@@ -24724,7 +24730,7 @@
     </row>
     <row r="835" ht="12.75" customHeight="1">
       <c r="A835" s="3">
-        <v>231.0</v>
+        <v>230.0</v>
       </c>
       <c r="B835" s="3" t="s">
         <v>1671</v>
@@ -24793,7 +24799,7 @@
     </row>
     <row r="838" ht="12.75" customHeight="1">
       <c r="A838" s="3">
-        <v>232.0</v>
+        <v>231.0</v>
       </c>
       <c r="B838" s="3" t="s">
         <v>1677</v>
@@ -24908,13 +24914,13 @@
     </row>
     <row r="843" ht="12.75" customHeight="1">
       <c r="A843" s="3">
-        <v>233.0</v>
-      </c>
-      <c r="B843" s="3">
-        <v>2012.0</v>
+        <v>232.0</v>
+      </c>
+      <c r="B843" s="3" t="s">
+        <v>1687</v>
       </c>
       <c r="C843" s="3" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="D843">
         <f t="shared" si="1"/>
@@ -24933,8 +24939,8 @@
       <c r="A844" s="3">
         <v>233.0</v>
       </c>
-      <c r="B844" s="3" t="s">
-        <v>1688</v>
+      <c r="B844" s="3">
+        <v>2012.0</v>
       </c>
       <c r="C844" s="3" t="s">
         <v>1689</v>
@@ -25000,7 +25006,7 @@
     </row>
     <row r="847" ht="12.75" customHeight="1">
       <c r="A847" s="3">
-        <v>234.0</v>
+        <v>233.0</v>
       </c>
       <c r="B847" s="3" t="s">
         <v>1694</v>
@@ -25069,7 +25075,7 @@
     </row>
     <row r="850" ht="12.75" customHeight="1">
       <c r="A850" s="3">
-        <v>235.0</v>
+        <v>234.0</v>
       </c>
       <c r="B850" s="3" t="s">
         <v>1700</v>
@@ -25161,7 +25167,7 @@
     </row>
     <row r="854" ht="12.75" customHeight="1">
       <c r="A854" s="3">
-        <v>236.0</v>
+        <v>235.0</v>
       </c>
       <c r="B854" s="3" t="s">
         <v>1708</v>
@@ -25230,7 +25236,7 @@
     </row>
     <row r="857" ht="12.75" customHeight="1">
       <c r="A857" s="3">
-        <v>237.0</v>
+        <v>236.0</v>
       </c>
       <c r="B857" s="3" t="s">
         <v>1714</v>
@@ -25299,7 +25305,7 @@
     </row>
     <row r="860" ht="12.75" customHeight="1">
       <c r="A860" s="3">
-        <v>238.0</v>
+        <v>237.0</v>
       </c>
       <c r="B860" s="3" t="s">
         <v>1720</v>
@@ -25368,7 +25374,7 @@
     </row>
     <row r="863" ht="12.75" customHeight="1">
       <c r="A863" s="3">
-        <v>239.0</v>
+        <v>238.0</v>
       </c>
       <c r="B863" s="3" t="s">
         <v>1726</v>
@@ -25437,7 +25443,7 @@
     </row>
     <row r="866" ht="12.75" customHeight="1">
       <c r="A866" s="3">
-        <v>240.0</v>
+        <v>239.0</v>
       </c>
       <c r="B866" s="3" t="s">
         <v>1732</v>
@@ -25506,7 +25512,7 @@
     </row>
     <row r="869" ht="12.75" customHeight="1">
       <c r="A869" s="3">
-        <v>241.0</v>
+        <v>240.0</v>
       </c>
       <c r="B869" s="3" t="s">
         <v>1738</v>
@@ -25598,7 +25604,7 @@
     </row>
     <row r="873" ht="12.75" customHeight="1">
       <c r="A873" s="3">
-        <v>242.0</v>
+        <v>241.0</v>
       </c>
       <c r="B873" s="3" t="s">
         <v>1746</v>
@@ -25667,7 +25673,7 @@
     </row>
     <row r="876" ht="12.75" customHeight="1">
       <c r="A876" s="3">
-        <v>243.0</v>
+        <v>242.0</v>
       </c>
       <c r="B876" s="3" t="s">
         <v>1752</v>
@@ -25736,7 +25742,7 @@
     </row>
     <row r="879" ht="12.75" customHeight="1">
       <c r="A879" s="3">
-        <v>244.0</v>
+        <v>243.0</v>
       </c>
       <c r="B879" s="3" t="s">
         <v>1758</v>
@@ -25805,7 +25811,7 @@
     </row>
     <row r="882" ht="12.75" customHeight="1">
       <c r="A882" s="3">
-        <v>245.0</v>
+        <v>244.0</v>
       </c>
       <c r="B882" s="3" t="s">
         <v>1764</v>
@@ -25874,7 +25880,7 @@
     </row>
     <row r="885" ht="12.75" customHeight="1">
       <c r="A885" s="3">
-        <v>246.0</v>
+        <v>245.0</v>
       </c>
       <c r="B885" s="3" t="s">
         <v>1770</v>
@@ -25966,7 +25972,7 @@
     </row>
     <row r="889" ht="12.75" customHeight="1">
       <c r="A889" s="3">
-        <v>247.0</v>
+        <v>246.0</v>
       </c>
       <c r="B889" s="3" t="s">
         <v>1778</v>
@@ -26012,7 +26018,7 @@
     </row>
     <row r="891" ht="12.75" customHeight="1">
       <c r="A891" s="3">
-        <v>248.0</v>
+        <v>247.0</v>
       </c>
       <c r="B891" s="3" t="s">
         <v>1782</v>
@@ -26081,7 +26087,7 @@
     </row>
     <row r="894" ht="12.75" customHeight="1">
       <c r="A894" s="3">
-        <v>249.0</v>
+        <v>248.0</v>
       </c>
       <c r="B894" s="3" t="s">
         <v>1788</v>
@@ -26150,7 +26156,7 @@
     </row>
     <row r="897" ht="12.75" customHeight="1">
       <c r="A897" s="3">
-        <v>250.0</v>
+        <v>249.0</v>
       </c>
       <c r="B897" s="3" t="s">
         <v>1794</v>
@@ -26218,8 +26224,27 @@
       </c>
     </row>
     <row r="900" ht="12.75" customHeight="1">
-      <c r="E900" s="5"/>
-      <c r="F900" s="5"/>
+      <c r="A900" s="3">
+        <v>250.0</v>
+      </c>
+      <c r="B900" s="3" t="s">
+        <v>1800</v>
+      </c>
+      <c r="C900" s="3" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D900">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E900" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F900" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
     </row>
     <row r="901" ht="12.75" customHeight="1">
       <c r="E901" s="5"/>
@@ -26301,7 +26326,10 @@
       <c r="E920" s="5"/>
       <c r="F920" s="5"/>
     </row>
-    <row r="921" ht="12.75" customHeight="1"/>
+    <row r="921" ht="12.75" customHeight="1">
+      <c r="E921" s="5"/>
+      <c r="F921" s="5"/>
+    </row>
     <row r="922" ht="12.75" customHeight="1"/>
     <row r="923" ht="12.75" customHeight="1"/>
     <row r="924" ht="12.75" customHeight="1"/>
@@ -26367,6 +26395,7 @@
     <row r="984" ht="12.75" customHeight="1"/>
     <row r="985" ht="12.75" customHeight="1"/>
     <row r="986" ht="12.75" customHeight="1"/>
+    <row r="987" ht="12.75" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -26467,35 +26496,35 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
